--- a/Algoritmo_Rota/Planilhas_Unitario/BCU/PLN_32_10.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/BCU/PLN_32_10.xlsx
@@ -454,7 +454,7 @@
         <v>2066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03650474548339844</v>
+        <v>0.0301966667175293</v>
       </c>
     </row>
   </sheetData>
